--- a/Python code - Structural Macroeconometrics- Final Project/Data/Working Data_ECB.xlsx
+++ b/Python code - Structural Macroeconometrics- Final Project/Data/Working Data_ECB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Github\Coding-Sample\Python code - Structural Macroeconometrics- Final Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A20C91-08EF-40E6-917F-509967A5E748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303042B7-0ECF-4FB0-8ECE-6144CB905365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="699">
   <si>
     <t>ECB Data Portal</t>
   </si>
@@ -2129,6 +2129,9 @@
   </si>
   <si>
     <t>HICP_yonygrwth_allminus</t>
+  </si>
+  <si>
+    <t>HICP_yonygrwth_allminus_FE</t>
   </si>
 </sst>
 </file>
@@ -2280,9 +2283,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2320,7 +2323,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2426,7 +2429,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2568,7 +2571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2579,10 +2582,15 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2671,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D337"/>
   <sheetViews>
-    <sheetView topLeftCell="A315" workbookViewId="0">
-      <selection sqref="A1:D337"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D337" sqref="D14:D337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7698,8 +7706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE860E-5BC3-4726-8797-0A74ACFE1E05}">
   <dimension ref="A1:B325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7713,7 +7721,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Python code - Structural Macroeconometrics- Final Project/Data/Working Data_ECB.xlsx
+++ b/Python code - Structural Macroeconometrics- Final Project/Data/Working Data_ECB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Github\Coding-Sample\Python code - Structural Macroeconometrics- Final Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303042B7-0ECF-4FB0-8ECE-6144CB905365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FF6872-3F53-4911-8881-C408BA9529AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="701">
   <si>
     <t>ECB Data Portal</t>
   </si>
@@ -2131,7 +2131,13 @@
     <t>HICP_yonygrwth_allminus</t>
   </si>
   <si>
-    <t>HICP_yonygrwth_allminus_FE</t>
+    <t>HICP</t>
+  </si>
+  <si>
+    <t>GDP_Index</t>
+  </si>
+  <si>
+    <t>3monthrate</t>
   </si>
 </sst>
 </file>
@@ -2582,7 +2588,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D337" sqref="D14:D337"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7704,2616 +7710,4724 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE860E-5BC3-4726-8797-0A74ACFE1E05}">
-  <dimension ref="A1:B325"/>
+  <dimension ref="A1:D337"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>68.5</v>
+      </c>
+      <c r="C2">
+        <v>100.588411437202</v>
+      </c>
+      <c r="D2">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>68.8</v>
+      </c>
+      <c r="C3">
+        <v>100.522082075586</v>
+      </c>
+      <c r="D3">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>100.43445652715999</v>
+      </c>
+      <c r="D4">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>69.2</v>
+      </c>
+      <c r="C5">
+        <v>100.33059945245</v>
+      </c>
+      <c r="D5">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C6">
+        <v>100.21452667445899</v>
+      </c>
+      <c r="D6">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="C7">
+        <v>100.088357713215</v>
+      </c>
+      <c r="D7">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>69.7</v>
+      </c>
+      <c r="C8">
+        <v>99.952302749748299</v>
+      </c>
+      <c r="D8">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>69.8</v>
+      </c>
+      <c r="C9">
+        <v>99.807385370749003</v>
+      </c>
+      <c r="D9">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="C10">
+        <v>99.658795574299802</v>
+      </c>
+      <c r="D10">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>99.519791118269595</v>
+      </c>
+      <c r="D11">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>70.2</v>
+      </c>
+      <c r="C12">
+        <v>99.407738186456598</v>
+      </c>
+      <c r="D12">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>70.3</v>
+      </c>
+      <c r="C13">
+        <v>99.339489244068304</v>
+      </c>
+      <c r="D13">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="16">
-        <v>2.6277372262773682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B14">
+        <v>70.3</v>
+      </c>
+      <c r="C14">
+        <v>99.324844544203501</v>
+      </c>
+      <c r="D14">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="16">
-        <v>2.4709302325581439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B15">
+        <v>70.5</v>
+      </c>
+      <c r="C15">
+        <v>99.368589494722201</v>
+      </c>
+      <c r="D15">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="16">
-        <v>2.3188405797101366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B16">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="C16">
+        <v>99.468563252889695</v>
+      </c>
+      <c r="D16">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="16">
-        <v>2.3121387283236912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B17">
+        <v>70.8</v>
+      </c>
+      <c r="C17">
+        <v>99.609377981795802</v>
+      </c>
+      <c r="D17">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="16">
-        <v>2.3054755043227582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B18">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>99.772430864773</v>
+      </c>
+      <c r="D18">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="16">
-        <v>2.0114942528735713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B19">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>99.942888092671097</v>
+      </c>
+      <c r="D19">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="16">
-        <v>2.0086083213773192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B20">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="C20">
+        <v>100.11502708155</v>
+      </c>
+      <c r="D20">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="16">
-        <v>1.8624641833810847</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B21">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="C21">
+        <v>100.28450865176301</v>
+      </c>
+      <c r="D21">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="16">
-        <v>1.8597997138769629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B22">
+        <v>71.2</v>
+      </c>
+      <c r="C22">
+        <v>100.44037856837799</v>
+      </c>
+      <c r="D22">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="16">
-        <v>2.000000000000008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B23">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="C23">
+        <v>100.557125326019</v>
+      </c>
+      <c r="D23">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="16">
-        <v>2.1367521367521367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B24">
+        <v>71.7</v>
+      </c>
+      <c r="C24">
+        <v>100.60764796319199</v>
+      </c>
+      <c r="D24">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="16">
-        <v>1.9914651493598945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B25">
+        <v>71.7</v>
+      </c>
+      <c r="C25">
+        <v>100.579012632557</v>
+      </c>
+      <c r="D25">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="16">
-        <v>2.1337126600284497</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B26">
+        <v>71.8</v>
+      </c>
+      <c r="C26">
+        <v>100.49269921655799</v>
+      </c>
+      <c r="D26">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="16">
-        <v>2.2695035460992825</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B27">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C27">
+        <v>100.382287104331</v>
+      </c>
+      <c r="D27">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="16">
-        <v>2.4079320113314493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B28">
+        <v>72.3</v>
+      </c>
+      <c r="C28">
+        <v>100.275214735755</v>
+      </c>
+      <c r="D28">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="16">
-        <v>2.2598870056497296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B29">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="C29">
+        <v>100.176424715008</v>
+      </c>
+      <c r="D29">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="16">
-        <v>2.2535211267605555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B30">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="C30">
+        <v>100.078056717961</v>
+      </c>
+      <c r="D30">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="16">
-        <v>2.2535211267605555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B31">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="C31">
+        <v>99.968425146242396</v>
+      </c>
+      <c r="D31">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="16">
-        <v>2.1097046413502114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B32">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="C32">
+        <v>99.840861953424294</v>
+      </c>
+      <c r="D32">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="16">
-        <v>2.3909985935302434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B33">
+        <v>72.8</v>
+      </c>
+      <c r="C33">
+        <v>99.694223138774802</v>
+      </c>
+      <c r="D33">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="16">
-        <v>2.2471910112359472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B34">
+        <v>72.8</v>
+      </c>
+      <c r="C34">
+        <v>99.534640941682994</v>
+      </c>
+      <c r="D34">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="16">
-        <v>2.1008403361344534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B35">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="C35">
+        <v>99.3785890872078</v>
+      </c>
+      <c r="D35">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="16">
-        <v>1.9525801952580075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B36">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="C36">
+        <v>99.245098791865303</v>
+      </c>
+      <c r="D36">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="16">
-        <v>1.9525801952580075</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B37">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="C37">
+        <v>99.147825624579596</v>
+      </c>
+      <c r="D37">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="16">
-        <v>1.9498607242339914</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B38">
+        <v>73.2</v>
+      </c>
+      <c r="C38">
+        <v>99.085572333410994</v>
+      </c>
+      <c r="D38">
+        <v>3.1320999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="16">
-        <v>1.8030513176144403</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B39">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="C39">
+        <v>99.051682849342995</v>
+      </c>
+      <c r="D39">
+        <v>3.0933999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="16">
-        <v>1.6597510373444024</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B40">
+        <v>73.5</v>
+      </c>
+      <c r="C40">
+        <v>99.040800481839199</v>
+      </c>
+      <c r="D40">
+        <v>3.0467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="16">
-        <v>1.6574585635358958</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B41">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="C41">
+        <v>99.053538748618095</v>
+      </c>
+      <c r="D41">
+        <v>2.6964999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="16">
-        <v>1.5151515151515269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B42">
+        <v>73.7</v>
+      </c>
+      <c r="C42">
+        <v>99.094803890372106</v>
+      </c>
+      <c r="D42">
+        <v>2.5790000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="16">
-        <v>1.6528925619834753</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B43">
+        <v>73.8</v>
+      </c>
+      <c r="C43">
+        <v>99.170427053528201</v>
+      </c>
+      <c r="D43">
+        <v>2.6267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="16">
-        <v>1.9283746556473909</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B44">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <v>99.281735531154098</v>
+      </c>
+      <c r="D44">
+        <v>2.6764999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="16">
-        <v>1.6483516483516523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B45">
+        <v>74</v>
+      </c>
+      <c r="C45">
+        <v>99.427416241826506</v>
+      </c>
+      <c r="D45">
+        <v>2.6949999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="16">
-        <v>1.7857142857142818</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B46">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="C46">
+        <v>99.602770192994697</v>
+      </c>
+      <c r="D46">
+        <v>2.7267000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="16">
-        <v>1.9204389574759826</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B47">
+        <v>74.3</v>
+      </c>
+      <c r="C47">
+        <v>99.796442007221003</v>
+      </c>
+      <c r="D47">
+        <v>3.3757000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="16">
-        <v>1.7783857729138324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B48">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="C48">
+        <v>99.994656536158402</v>
+      </c>
+      <c r="D48">
+        <v>3.4676999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="16">
-        <v>1.7783857729138324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B49">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="C49">
+        <v>100.18414036325299</v>
+      </c>
+      <c r="D49">
+        <v>3.4460000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="16">
-        <v>1.9125683060109173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B50">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="C50">
+        <v>100.35473324482101</v>
+      </c>
+      <c r="D50">
+        <v>3.3431000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="16">
-        <v>1.907356948228871</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B51">
+        <v>74.8</v>
+      </c>
+      <c r="C51">
+        <v>100.499924891733</v>
+      </c>
+      <c r="D51">
+        <v>3.5367999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="16">
-        <v>1.9047619047619126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B52">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="C52">
+        <v>100.618750741756</v>
+      </c>
+      <c r="D52">
+        <v>3.7469999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="16">
-        <v>1.7663043478261025</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B53">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="C53">
+        <v>100.719513862254</v>
+      </c>
+      <c r="D53">
+        <v>3.9253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="16">
-        <v>1.899592944369052</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B54">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="C54">
+        <v>100.814939943854</v>
+      </c>
+      <c r="D54">
+        <v>4.3620000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="16">
-        <v>2.0325203252032518</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B55">
+        <v>75.3</v>
+      </c>
+      <c r="C55">
+        <v>100.918657243317</v>
+      </c>
+      <c r="D55">
+        <v>4.5016999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="16">
-        <v>1.8918918918918997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B56">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="C56">
+        <v>101.042124254839</v>
+      </c>
+      <c r="D56">
+        <v>4.5829000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="16">
-        <v>2.0270270270270272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B57">
+        <v>75.5</v>
+      </c>
+      <c r="C57">
+        <v>101.191491378487</v>
+      </c>
+      <c r="D57">
+        <v>4.7770999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="16">
-        <v>1.8893387314440024</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B58">
+        <v>75.5</v>
+      </c>
+      <c r="C58">
+        <v>101.363088873488</v>
+      </c>
+      <c r="D58">
+        <v>4.8528000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="16">
-        <v>1.884253028263803</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B59">
+        <v>75.7</v>
+      </c>
+      <c r="C59">
+        <v>101.53706139645</v>
+      </c>
+      <c r="D59">
+        <v>5.0412999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="16">
-        <v>2.0161290322580645</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B60">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="C60">
+        <v>101.686427974007</v>
+      </c>
+      <c r="D60">
+        <v>5.0919999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="16">
-        <v>2.1505376344085945</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B61">
+        <v>76</v>
+      </c>
+      <c r="C61">
+        <v>101.78613030746099</v>
+      </c>
+      <c r="D61">
+        <v>4.9391999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="16">
-        <v>1.6085790884718536</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B62">
+        <v>75.8</v>
+      </c>
+      <c r="C62">
+        <v>101.824010448162</v>
+      </c>
+      <c r="D62">
+        <v>4.7706999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>147</v>
       </c>
-      <c r="B51" s="16">
-        <v>0.66844919786096257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B63">
+        <v>75.3</v>
+      </c>
+      <c r="C63">
+        <v>101.795452460715</v>
+      </c>
+      <c r="D63">
+        <v>4.7557999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="16">
-        <v>1.6021361815754187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B64">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="C64">
+        <v>101.702491987451</v>
+      </c>
+      <c r="D64">
+        <v>4.7085999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="16">
-        <v>2.4032042723631468</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B65">
+        <v>76.7</v>
+      </c>
+      <c r="C65">
+        <v>101.557730518939</v>
+      </c>
+      <c r="D65">
+        <v>4.6820000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="16">
-        <v>2.5299600532623248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B66">
+        <v>77</v>
+      </c>
+      <c r="C66">
+        <v>101.377169820181</v>
+      </c>
+      <c r="D66">
+        <v>4.6367000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="16">
-        <v>2.3904382470119487</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B67">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="C67">
+        <v>101.17693793989601</v>
+      </c>
+      <c r="D67">
+        <v>4.4535999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="16">
-        <v>2.1220159151193556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B68">
+        <v>77</v>
+      </c>
+      <c r="C68">
+        <v>100.972790206867</v>
+      </c>
+      <c r="D68">
+        <v>4.4671000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="16">
-        <v>1.7218543046357577</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B69">
+        <v>76.8</v>
+      </c>
+      <c r="C69">
+        <v>100.778618291551</v>
+      </c>
+      <c r="D69">
+        <v>4.3535000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="16">
-        <v>2.2516556291390764</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B70">
+        <v>77.2</v>
+      </c>
+      <c r="C70">
+        <v>100.605449425744</v>
+      </c>
+      <c r="D70">
+        <v>3.9828999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="16">
-        <v>2.5099075297225779</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B71">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="C71">
+        <v>100.459921613852</v>
+      </c>
+      <c r="D71">
+        <v>3.5998999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>165</v>
       </c>
-      <c r="B60" s="16">
-        <v>2.5032938076416222</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B72">
+        <v>77.8</v>
+      </c>
+      <c r="C72">
+        <v>100.345954502802</v>
+      </c>
+      <c r="D72">
+        <v>3.3856999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="16">
-        <v>2.5000000000000075</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B73">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="C73">
+        <v>100.264565946926</v>
+      </c>
+      <c r="D73">
+        <v>3.3449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="16">
-        <v>2.6385224274406331</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B74">
+        <v>77.8</v>
+      </c>
+      <c r="C74">
+        <v>100.21155482530899</v>
+      </c>
+      <c r="D74">
+        <v>3.3388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>171</v>
       </c>
-      <c r="B63" s="16">
-        <v>2.9216467463479456</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B75">
+        <v>77.5</v>
+      </c>
+      <c r="C75">
+        <v>100.18083311963601</v>
+      </c>
+      <c r="D75">
+        <v>3.3571</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>173</v>
       </c>
-      <c r="B64" s="16">
-        <v>2.8909329829172181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B76">
+        <v>78.3</v>
+      </c>
+      <c r="C76">
+        <v>100.165817747313</v>
+      </c>
+      <c r="D76">
+        <v>3.3908</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>175</v>
       </c>
-      <c r="B65" s="16">
-        <v>2.7379400260756115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B77">
+        <v>78.8</v>
+      </c>
+      <c r="C77">
+        <v>100.15933371224099</v>
+      </c>
+      <c r="D77">
+        <v>3.4068999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>177</v>
       </c>
-      <c r="B66" s="16">
-        <v>2.5974025974025974</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B78">
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <v>100.155006362238</v>
+      </c>
+      <c r="D78">
+        <v>3.4670999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>179</v>
       </c>
-      <c r="B67" s="16">
-        <v>2.7237354085603225</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B79">
+        <v>79.2</v>
+      </c>
+      <c r="C79">
+        <v>100.148145186354</v>
+      </c>
+      <c r="D79">
+        <v>3.464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>181</v>
       </c>
-      <c r="B68" s="16">
-        <v>2.72727272727272</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B80">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="C80">
+        <v>100.136571720953</v>
+      </c>
+      <c r="D80">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>183</v>
       </c>
-      <c r="B69" s="16">
-        <v>2.864583333333337</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <v>100.118380200027</v>
+      </c>
+      <c r="D81">
+        <v>3.3519000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>185</v>
       </c>
-      <c r="B70" s="16">
-        <v>2.9792746113989601</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B82">
+        <v>79.5</v>
+      </c>
+      <c r="C82">
+        <v>100.090131750061</v>
+      </c>
+      <c r="D82">
+        <v>3.3100999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>187</v>
       </c>
-      <c r="B71" s="16">
-        <v>2.8350515463917563</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B83">
+        <v>79.8</v>
+      </c>
+      <c r="C83">
+        <v>100.045617956483</v>
+      </c>
+      <c r="D83">
+        <v>3.2612999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>189</v>
       </c>
-      <c r="B72" s="16">
-        <v>2.9562982005141354</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B84">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="C84">
+        <v>99.978372418006501</v>
+      </c>
+      <c r="D84">
+        <v>3.1240999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>191</v>
       </c>
-      <c r="B73" s="16">
-        <v>2.9525032092426149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B85">
+        <v>80.2</v>
+      </c>
+      <c r="C85">
+        <v>99.885422003337993</v>
+      </c>
+      <c r="D85">
+        <v>2.9409999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>193</v>
       </c>
-      <c r="B74" s="16">
-        <v>2.5706940874035991</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B86">
+        <v>79.8</v>
+      </c>
+      <c r="C86">
+        <v>99.772711791439093</v>
+      </c>
+      <c r="D86">
+        <v>2.8317999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>195</v>
       </c>
-      <c r="B75" s="16">
-        <v>2.451612903225814</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B87">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="C87">
+        <v>99.650255080042001</v>
+      </c>
+      <c r="D87">
+        <v>2.6875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>197</v>
       </c>
-      <c r="B76" s="16">
-        <v>2.8097062579821239</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B88">
+        <v>80.5</v>
+      </c>
+      <c r="C88">
+        <v>99.528798151028496</v>
+      </c>
+      <c r="D88">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>199</v>
       </c>
-      <c r="B77" s="16">
-        <v>2.9187817258883215</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B89">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="C89">
+        <v>99.417293080135494</v>
+      </c>
+      <c r="D89">
+        <v>2.5333000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>201</v>
       </c>
-      <c r="B78" s="16">
-        <v>3.0379746835443111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B90">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="C90">
+        <v>99.324131880133095</v>
+      </c>
+      <c r="D90">
+        <v>2.4005000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>203</v>
       </c>
-      <c r="B79" s="16">
-        <v>2.7777777777777812</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B91">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="C91">
+        <v>99.257739075970306</v>
+      </c>
+      <c r="D91">
+        <v>2.1518999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>205</v>
       </c>
-      <c r="B80" s="16">
-        <v>2.7812895069532275</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B92">
+        <v>81.3</v>
+      </c>
+      <c r="C92">
+        <v>99.225921445200598</v>
+      </c>
+      <c r="D92">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>207</v>
       </c>
-      <c r="B81" s="16">
-        <v>2.5316455696202533</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B93">
+        <v>81</v>
+      </c>
+      <c r="C93">
+        <v>99.234098571039794</v>
+      </c>
+      <c r="D93">
+        <v>2.1404000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>209</v>
       </c>
-      <c r="B82" s="16">
-        <v>2.5157232704402519</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B94">
+        <v>81.5</v>
+      </c>
+      <c r="C94">
+        <v>99.281100831542005</v>
+      </c>
+      <c r="D94">
+        <v>2.1473</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>211</v>
       </c>
-      <c r="B83" s="16">
-        <v>2.6315789473684315</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B95">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="C95">
+        <v>99.352100481223701</v>
+      </c>
+      <c r="D95">
+        <v>2.1436000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>213</v>
       </c>
-      <c r="B84" s="16">
-        <v>2.6217228464419584</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B96">
+        <v>82.2</v>
+      </c>
+      <c r="C96">
+        <v>99.427854653818201</v>
+      </c>
+      <c r="D96">
+        <v>2.1589999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>215</v>
       </c>
-      <c r="B85" s="16">
-        <v>2.4937655860349124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B97">
+        <v>82.2</v>
+      </c>
+      <c r="C97">
+        <v>99.492263028849294</v>
+      </c>
+      <c r="D97">
+        <v>2.1463000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>217</v>
       </c>
-      <c r="B86" s="16">
-        <v>2.1303258145363446</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B98">
+        <v>81.5</v>
+      </c>
+      <c r="C98">
+        <v>99.539654304949707</v>
+      </c>
+      <c r="D98">
+        <v>2.0895000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>219</v>
       </c>
-      <c r="B87" s="16">
-        <v>2.3929471032745484</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B99">
+        <v>81.3</v>
+      </c>
+      <c r="C99">
+        <v>99.569767234967202</v>
+      </c>
+      <c r="D99">
+        <v>2.0705</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>221</v>
       </c>
-      <c r="B88" s="16">
-        <v>2.3602484472049761</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B100">
+        <v>82.4</v>
+      </c>
+      <c r="C100">
+        <v>99.583971448907903</v>
+      </c>
+      <c r="D100">
+        <v>2.0287999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>223</v>
       </c>
-      <c r="B89" s="16">
-        <v>2.3427866831072821</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B101">
+        <v>83</v>
+      </c>
+      <c r="C101">
+        <v>99.582762260521505</v>
+      </c>
+      <c r="D101">
+        <v>2.0488</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>225</v>
       </c>
-      <c r="B90" s="16">
-        <v>2.2113022113022076</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B102">
+        <v>83.2</v>
+      </c>
+      <c r="C102">
+        <v>99.566269320290701</v>
+      </c>
+      <c r="D102">
+        <v>2.0859000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>227</v>
       </c>
-      <c r="B91" s="16">
-        <v>2.4570024570024569</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B103">
+        <v>83.4</v>
+      </c>
+      <c r="C103">
+        <v>99.535919227197496</v>
+      </c>
+      <c r="D103">
+        <v>2.1126999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>229</v>
       </c>
-      <c r="B92" s="16">
-        <v>2.2140221402213989</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B104">
+        <v>83.1</v>
+      </c>
+      <c r="C104">
+        <v>99.497238339005904</v>
+      </c>
+      <c r="D104">
+        <v>2.1160000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>231</v>
       </c>
-      <c r="B93" s="16">
-        <v>2.3456790123456859</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B105">
+        <v>82.9</v>
+      </c>
+      <c r="C105">
+        <v>99.456387935889396</v>
+      </c>
+      <c r="D105">
+        <v>2.1143000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>233</v>
       </c>
-      <c r="B94" s="16">
-        <v>2.4539877300613497</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B106">
+        <v>83.5</v>
+      </c>
+      <c r="C106">
+        <v>99.417367452739896</v>
+      </c>
+      <c r="D106">
+        <v>2.1185999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>235</v>
       </c>
-      <c r="B95" s="16">
-        <v>2.3199023199023094</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B107">
+        <v>83.8</v>
+      </c>
+      <c r="C107">
+        <v>99.3794481806205</v>
+      </c>
+      <c r="D107">
+        <v>2.1473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>237</v>
       </c>
-      <c r="B96" s="16">
-        <v>2.1897810218978067</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B108">
+        <v>84</v>
+      </c>
+      <c r="C108">
+        <v>99.341817859400805</v>
+      </c>
+      <c r="D108">
+        <v>2.1703000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>239</v>
       </c>
-      <c r="B97" s="16">
-        <v>2.4330900243308999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B109">
+        <v>84.2</v>
+      </c>
+      <c r="C109">
+        <v>99.308195872989501</v>
+      </c>
+      <c r="D109">
+        <v>2.1732</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>241</v>
       </c>
-      <c r="B98" s="16">
-        <v>2.2085889570552113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B110">
+        <v>83.3</v>
+      </c>
+      <c r="C110">
+        <v>99.291484656467503</v>
+      </c>
+      <c r="D110">
+        <v>2.1454</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>243</v>
       </c>
-      <c r="B99" s="16">
-        <v>2.0910209102091057</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B111">
+        <v>83</v>
+      </c>
+      <c r="C111">
+        <v>99.306820143562803</v>
+      </c>
+      <c r="D111">
+        <v>2.1383000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>245</v>
       </c>
-      <c r="B100" s="16">
-        <v>2.0631067961164908</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B112">
+        <v>84.1</v>
+      </c>
+      <c r="C112">
+        <v>99.363520169735494</v>
+      </c>
+      <c r="D112">
+        <v>2.1372</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>247</v>
       </c>
-      <c r="B101" s="16">
-        <v>2.0481927710843411</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B113">
+        <v>84.7</v>
+      </c>
+      <c r="C113">
+        <v>99.454786927875205</v>
+      </c>
+      <c r="D113">
+        <v>2.1372</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>249</v>
       </c>
-      <c r="B102" s="16">
-        <v>2.1634615384615348</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B114">
+        <v>85</v>
+      </c>
+      <c r="C114">
+        <v>99.565751455597706</v>
+      </c>
+      <c r="D114">
+        <v>2.1255999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>251</v>
       </c>
-      <c r="B103" s="16">
-        <v>1.9184652278177388</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B115">
+        <v>85</v>
+      </c>
+      <c r="C115">
+        <v>99.679089241665807</v>
+      </c>
+      <c r="D115">
+        <v>2.1110000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>253</v>
       </c>
-      <c r="B104" s="16">
-        <v>1.9253910950661959</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B116">
+        <v>84.7</v>
+      </c>
+      <c r="C116">
+        <v>99.779342115913906</v>
+      </c>
+      <c r="D116">
+        <v>2.1194000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>255</v>
       </c>
-      <c r="B105" s="16">
-        <v>1.8094089264173701</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B117">
+        <v>84.4</v>
+      </c>
+      <c r="C117">
+        <v>99.854832301664203</v>
+      </c>
+      <c r="D117">
+        <v>2.1324999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>257</v>
       </c>
-      <c r="B106" s="16">
-        <v>1.6766467065868331</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B118">
+        <v>84.9</v>
+      </c>
+      <c r="C118">
+        <v>99.900641497970199</v>
+      </c>
+      <c r="D118">
+        <v>2.1391</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>259</v>
       </c>
-      <c r="B107" s="16">
-        <v>1.9093078758949982</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B119">
+        <v>85.4</v>
+      </c>
+      <c r="C119">
+        <v>99.923469324144307</v>
+      </c>
+      <c r="D119">
+        <v>2.1966000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>261</v>
       </c>
-      <c r="B108" s="16">
-        <v>1.7857142857142856</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B120">
+        <v>85.5</v>
+      </c>
+      <c r="C120">
+        <v>99.935779625038094</v>
+      </c>
+      <c r="D120">
+        <v>2.3609</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>263</v>
       </c>
-      <c r="B109" s="16">
-        <v>1.6627078384798</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B121">
+        <v>85.6</v>
+      </c>
+      <c r="C121">
+        <v>99.951709054725796</v>
+      </c>
+      <c r="D121">
+        <v>2.4729000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>265</v>
       </c>
-      <c r="B110" s="16">
-        <v>1.5606242496998766</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B122">
+        <v>84.6</v>
+      </c>
+      <c r="C122">
+        <v>99.983887949873605</v>
+      </c>
+      <c r="D122">
+        <v>2.5116999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>267</v>
       </c>
-      <c r="B111" s="16">
-        <v>1.6867469879518142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B123">
+        <v>84.4</v>
+      </c>
+      <c r="C123">
+        <v>100.042448860984</v>
+      </c>
+      <c r="D123">
+        <v>2.6004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>269</v>
       </c>
-      <c r="B112" s="16">
-        <v>1.7835909631391205</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B124">
+        <v>85.6</v>
+      </c>
+      <c r="C124">
+        <v>100.133034637251</v>
+      </c>
+      <c r="D124">
+        <v>2.7225999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>271</v>
       </c>
-      <c r="B113" s="16">
-        <v>1.8890200708382459</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B125">
+        <v>86.3</v>
+      </c>
+      <c r="C125">
+        <v>100.25305751371501</v>
+      </c>
+      <c r="D125">
+        <v>2.7938000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>273</v>
       </c>
-      <c r="B114" s="16">
-        <v>1.7647058823529411</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B126">
+        <v>86.5</v>
+      </c>
+      <c r="C126">
+        <v>100.397213219364</v>
+      </c>
+      <c r="D126">
+        <v>2.8889999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>275</v>
       </c>
-      <c r="B115" s="16">
-        <v>1.8823529411764639</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B127">
+        <v>86.6</v>
+      </c>
+      <c r="C127">
+        <v>100.561062640515</v>
+      </c>
+      <c r="D127">
+        <v>2.9857</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>277</v>
       </c>
-      <c r="B116" s="16">
-        <v>1.6528925619834611</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B128">
+        <v>86.1</v>
+      </c>
+      <c r="C128">
+        <v>100.74308815192001</v>
+      </c>
+      <c r="D128">
+        <v>3.1021999999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>279</v>
       </c>
-      <c r="B117" s="16">
-        <v>1.6587677725118382</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B129">
+        <v>85.8</v>
+      </c>
+      <c r="C129">
+        <v>100.940773104169</v>
+      </c>
+      <c r="D129">
+        <v>3.2265000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>281</v>
       </c>
-      <c r="B118" s="16">
-        <v>2.0023557126030491</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B130">
+        <v>86.6</v>
+      </c>
+      <c r="C130">
+        <v>101.14554030075401</v>
+      </c>
+      <c r="D130">
+        <v>3.3353999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>283</v>
       </c>
-      <c r="B119" s="16">
-        <v>1.8735362997658009</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B131">
+        <v>87</v>
+      </c>
+      <c r="C131">
+        <v>101.336719594474</v>
+      </c>
+      <c r="D131">
+        <v>3.5019999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>285</v>
       </c>
-      <c r="B120" s="16">
-        <v>1.8713450292397595</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B132">
+        <v>87.1</v>
+      </c>
+      <c r="C132">
+        <v>101.49129839743701</v>
+      </c>
+      <c r="D132">
+        <v>3.5972</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>287</v>
       </c>
-      <c r="B121" s="16">
-        <v>1.8691588785046829</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B133">
+        <v>87.2</v>
+      </c>
+      <c r="C133">
+        <v>101.595000088665</v>
+      </c>
+      <c r="D133">
+        <v>3.6842000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>289</v>
       </c>
-      <c r="B122" s="16">
-        <v>1.6548463356974064</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B134">
+        <v>86</v>
+      </c>
+      <c r="C134">
+        <v>101.65627082792</v>
+      </c>
+      <c r="D134">
+        <v>3.7519</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>291</v>
       </c>
-      <c r="B123" s="16">
-        <v>2.1327014218009444</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B135">
+        <v>86.2</v>
+      </c>
+      <c r="C135">
+        <v>101.69300856875</v>
+      </c>
+      <c r="D135">
+        <v>3.8182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>293</v>
       </c>
-      <c r="B124" s="16">
-        <v>1.9859813084112183</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B136">
+        <v>87.3</v>
+      </c>
+      <c r="C136">
+        <v>101.722462082886</v>
+      </c>
+      <c r="D136">
+        <v>3.8908999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>295</v>
       </c>
-      <c r="B125" s="16">
-        <v>1.853997682502907</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B137">
+        <v>87.9</v>
+      </c>
+      <c r="C137">
+        <v>101.75313951016</v>
+      </c>
+      <c r="D137">
+        <v>3.9752999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>297</v>
       </c>
-      <c r="B126" s="16">
-        <v>1.8497109826589531</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B138">
+        <v>88.1</v>
+      </c>
+      <c r="C138">
+        <v>101.78771158247901</v>
+      </c>
+      <c r="D138">
+        <v>4.0713999999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>299</v>
       </c>
-      <c r="B127" s="16">
-        <v>1.8475750577367305</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B139">
+        <v>88.2</v>
+      </c>
+      <c r="C139">
+        <v>101.826103720315</v>
+      </c>
+      <c r="D139">
+        <v>4.1478000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>301</v>
       </c>
-      <c r="B128" s="16">
-        <v>1.7421602787456449</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B140">
+        <v>87.6</v>
+      </c>
+      <c r="C140">
+        <v>101.86858004152</v>
+      </c>
+      <c r="D140">
+        <v>4.2161999999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>303</v>
       </c>
-      <c r="B129" s="16">
-        <v>1.8648018648018749</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B141">
+        <v>87.4</v>
+      </c>
+      <c r="C141">
+        <v>101.917441138803</v>
+      </c>
+      <c r="D141">
+        <v>4.5435999999999996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>305</v>
       </c>
-      <c r="B130" s="16">
-        <v>1.8475750577367305</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B142">
+        <v>88.2</v>
+      </c>
+      <c r="C142">
+        <v>101.978703863362</v>
+      </c>
+      <c r="D142">
+        <v>4.7416999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>307</v>
       </c>
-      <c r="B131" s="16">
-        <v>2.0689655172413763</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B143">
+        <v>88.8</v>
+      </c>
+      <c r="C143">
+        <v>102.063603554018</v>
+      </c>
+      <c r="D143">
+        <v>4.6874000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>309</v>
       </c>
-      <c r="B132" s="16">
-        <v>2.2962112514351323</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B144">
+        <v>89.1</v>
+      </c>
+      <c r="C144">
+        <v>102.179794580791</v>
+      </c>
+      <c r="D144">
+        <v>4.6384999999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>311</v>
       </c>
-      <c r="B133" s="16">
-        <v>2.4082568807339384</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B145">
+        <v>89.3</v>
+      </c>
+      <c r="C145">
+        <v>102.321051000946</v>
+      </c>
+      <c r="D145">
+        <v>4.8483999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>313</v>
       </c>
-      <c r="B134" s="16">
-        <v>2.5581395348837246</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B146">
+        <v>88.2</v>
+      </c>
+      <c r="C146">
+        <v>102.454836819683</v>
+      </c>
+      <c r="D146">
+        <v>4.4814999999999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>315</v>
       </c>
-      <c r="B135" s="16">
-        <v>2.4361948955916408</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B147">
+        <v>88.3</v>
+      </c>
+      <c r="C147">
+        <v>102.538116464608</v>
+      </c>
+      <c r="D147">
+        <v>4.3620999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>317</v>
       </c>
-      <c r="B136" s="16">
-        <v>2.86368843069874</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B148">
+        <v>89.8</v>
+      </c>
+      <c r="C148">
+        <v>102.53417588540501</v>
+      </c>
+      <c r="D148">
+        <v>4.5964</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>319</v>
       </c>
-      <c r="B137" s="16">
-        <v>2.7303754266211504</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B149">
+        <v>90.3</v>
+      </c>
+      <c r="C149">
+        <v>102.43343648170899</v>
+      </c>
+      <c r="D149">
+        <v>4.7835000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>321</v>
       </c>
-      <c r="B138" s="16">
-        <v>2.8376844494892173</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B150">
+        <v>90.6</v>
+      </c>
+      <c r="C150">
+        <v>102.237393852528</v>
+      </c>
+      <c r="D150">
+        <v>4.8574000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>323</v>
       </c>
-      <c r="B139" s="16">
-        <v>2.9478458049886558</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B151">
+        <v>90.8</v>
+      </c>
+      <c r="C151">
+        <v>101.949511751876</v>
+      </c>
+      <c r="D151">
+        <v>4.9405000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>325</v>
       </c>
-      <c r="B140" s="16">
-        <v>2.7397260273972672</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B152">
+        <v>90</v>
+      </c>
+      <c r="C152">
+        <v>101.573118243119</v>
+      </c>
+      <c r="D152">
+        <v>4.9610000000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>327</v>
       </c>
-      <c r="B141" s="16">
-        <v>3.2036613272311181</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B153">
+        <v>90.2</v>
+      </c>
+      <c r="C153">
+        <v>101.111483293879</v>
+      </c>
+      <c r="D153">
+        <v>4.9652000000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>329</v>
       </c>
-      <c r="B142" s="16">
-        <v>2.9478458049886558</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B154">
+        <v>90.8</v>
+      </c>
+      <c r="C154">
+        <v>100.57432417882301</v>
+      </c>
+      <c r="D154">
+        <v>5.0191999999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>331</v>
       </c>
-      <c r="B143" s="16">
-        <v>3.0405405405405439</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B155">
+        <v>91.5</v>
+      </c>
+      <c r="C155">
+        <v>99.9902427367211</v>
+      </c>
+      <c r="D155">
+        <v>5.1131000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>333</v>
       </c>
-      <c r="B144" s="16">
-        <v>2.6936026936027</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B156">
+        <v>91.5</v>
+      </c>
+      <c r="C156">
+        <v>99.396752369802599</v>
+      </c>
+      <c r="D156">
+        <v>4.2382999999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>335</v>
       </c>
-      <c r="B145" s="16">
-        <v>2.5755879059350471</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B157">
+        <v>91.6</v>
+      </c>
+      <c r="C157">
+        <v>98.833957855948398</v>
+      </c>
+      <c r="D157">
+        <v>3.2926000000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>337</v>
       </c>
-      <c r="B146" s="16">
-        <v>2.0408163265306092</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B158">
+        <v>90</v>
+      </c>
+      <c r="C158">
+        <v>98.339265873113703</v>
+      </c>
+      <c r="D158">
+        <v>2.4565000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>339</v>
       </c>
-      <c r="B147" s="16">
-        <v>2.0385050962627376</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B159">
+        <v>90.1</v>
+      </c>
+      <c r="C159">
+        <v>97.945945744614406</v>
+      </c>
+      <c r="D159">
+        <v>1.9431</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>341</v>
       </c>
-      <c r="B148" s="16">
-        <v>1.7817371937639295</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B160">
+        <v>91.4</v>
+      </c>
+      <c r="C160">
+        <v>97.677003748935803</v>
+      </c>
+      <c r="D160">
+        <v>1.6355</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>343</v>
       </c>
-      <c r="B149" s="16">
-        <v>1.9933554817275716</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B161">
+        <v>92.1</v>
+      </c>
+      <c r="C161">
+        <v>97.531841318410997</v>
+      </c>
+      <c r="D161">
+        <v>1.4222999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>345</v>
       </c>
-      <c r="B150" s="16">
-        <v>1.8763796909492307</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="B162">
+        <v>92.3</v>
+      </c>
+      <c r="C162">
+        <v>97.499494000472097</v>
+      </c>
+      <c r="D162">
+        <v>1.2817000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>347</v>
       </c>
-      <c r="B151" s="16">
-        <v>1.6519823788546255</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B163">
+        <v>92.3</v>
+      </c>
+      <c r="C163">
+        <v>97.562610511128398</v>
+      </c>
+      <c r="D163">
+        <v>1.2279</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>349</v>
       </c>
-      <c r="B152" s="16">
-        <v>1.2222222222222159</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B164">
+        <v>91.1</v>
+      </c>
+      <c r="C164">
+        <v>97.693185940373098</v>
+      </c>
+      <c r="D164">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>351</v>
       </c>
-      <c r="B153" s="16">
-        <v>1.3303769401330408</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B165">
+        <v>91.4</v>
+      </c>
+      <c r="C165">
+        <v>97.863279681023201</v>
+      </c>
+      <c r="D165">
+        <v>0.86050000000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>353</v>
       </c>
-      <c r="B154" s="16">
-        <v>1.5418502202643234</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B166">
+        <v>92.2</v>
+      </c>
+      <c r="C166">
+        <v>98.051017942383695</v>
+      </c>
+      <c r="D166">
+        <v>0.77210000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>355</v>
       </c>
-      <c r="B155" s="16">
-        <v>1.4207650273224013</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B167">
+        <v>92.8</v>
+      </c>
+      <c r="C167">
+        <v>98.243934757118495</v>
+      </c>
+      <c r="D167">
+        <v>0.73750000000000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>357</v>
       </c>
-      <c r="B156" s="16">
-        <v>1.4207650273224013</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B168">
+        <v>92.8</v>
+      </c>
+      <c r="C168">
+        <v>98.437162612523494</v>
+      </c>
+      <c r="D168">
+        <v>0.71619999999999995</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>359</v>
       </c>
-      <c r="B157" s="16">
-        <v>1.528384279475989</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B169">
+        <v>93</v>
+      </c>
+      <c r="C169">
+        <v>98.631270731452602</v>
+      </c>
+      <c r="D169">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>361</v>
       </c>
-      <c r="B158" s="16">
-        <v>1.4444444444444413</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B170">
+        <v>91.3</v>
+      </c>
+      <c r="C170">
+        <v>98.830075176838506</v>
+      </c>
+      <c r="D170">
+        <v>0.67969999999999997</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>363</v>
       </c>
-      <c r="B159" s="16">
-        <v>1.2208657047724847</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B171">
+        <v>91.2</v>
+      </c>
+      <c r="C171">
+        <v>99.038133217555298</v>
+      </c>
+      <c r="D171">
+        <v>0.66169999999999995</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>365</v>
       </c>
-      <c r="B160" s="16">
-        <v>1.4223194748358829</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B172">
+        <v>92.7</v>
+      </c>
+      <c r="C172">
+        <v>99.257882966929898</v>
+      </c>
+      <c r="D172">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>367</v>
       </c>
-      <c r="B161" s="16">
-        <v>1.6286644951140066</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B173">
+        <v>93.6</v>
+      </c>
+      <c r="C173">
+        <v>99.486089373849097</v>
+      </c>
+      <c r="D173">
+        <v>0.64470000000000005</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>369</v>
       </c>
-      <c r="B162" s="16">
-        <v>1.4084507042253491</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B174">
+        <v>93.6</v>
+      </c>
+      <c r="C174">
+        <v>99.717295999134095</v>
+      </c>
+      <c r="D174">
+        <v>0.6865</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>371</v>
       </c>
-      <c r="B163" s="16">
-        <v>1.5167930660888469</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B175">
+        <v>93.7</v>
+      </c>
+      <c r="C175">
+        <v>99.946724374837601</v>
+      </c>
+      <c r="D175">
+        <v>0.72760000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>373</v>
       </c>
-      <c r="B164" s="16">
-        <v>1.7563117453348063</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B176">
+        <v>92.7</v>
+      </c>
+      <c r="C176">
+        <v>100.17301503795601</v>
+      </c>
+      <c r="D176">
+        <v>0.8488</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>375</v>
       </c>
-      <c r="B165" s="16">
-        <v>1.6411378555798686</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B177">
+        <v>92.9</v>
+      </c>
+      <c r="C177">
+        <v>100.396520026044</v>
+      </c>
+      <c r="D177">
+        <v>0.89549999999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>377</v>
       </c>
-      <c r="B166" s="16">
-        <v>1.5184381778741773</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="B178">
+        <v>93.6</v>
+      </c>
+      <c r="C178">
+        <v>100.617820428409</v>
+      </c>
+      <c r="D178">
+        <v>0.88049999999999995</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>379</v>
       </c>
-      <c r="B167" s="16">
-        <v>1.7241379310344922</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="B179">
+        <v>94.4</v>
+      </c>
+      <c r="C179">
+        <v>100.836449084148</v>
+      </c>
+      <c r="D179">
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>381</v>
       </c>
-      <c r="B168" s="16">
-        <v>1.6163793103448276</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B180">
+        <v>94.3</v>
+      </c>
+      <c r="C180">
+        <v>101.050161455923</v>
+      </c>
+      <c r="D180">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>383</v>
       </c>
-      <c r="B169" s="16">
-        <v>1.6129032258064515</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B181">
+        <v>94.5</v>
+      </c>
+      <c r="C181">
+        <v>101.254418460978</v>
+      </c>
+      <c r="D181">
+        <v>1.0217000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>385</v>
       </c>
-      <c r="B170" s="16">
-        <v>1.2048192771084432</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="B182">
+        <v>92.4</v>
+      </c>
+      <c r="C182">
+        <v>101.44224973151501</v>
+      </c>
+      <c r="D182">
+        <v>1.0172000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>387</v>
       </c>
-      <c r="B171" s="16">
-        <v>1.3157894736842135</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B183">
+        <v>92.4</v>
+      </c>
+      <c r="C183">
+        <v>101.604588334539</v>
+      </c>
+      <c r="D183">
+        <v>1.0867</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>389</v>
       </c>
-      <c r="B172" s="16">
-        <v>2.1574973031283711</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B184">
+        <v>94.7</v>
+      </c>
+      <c r="C184">
+        <v>101.73183433846999</v>
+      </c>
+      <c r="D184">
+        <v>1.1755</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>391</v>
       </c>
-      <c r="B173" s="16">
-        <v>2.1367521367521367</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B185">
+        <v>95.6</v>
+      </c>
+      <c r="C185">
+        <v>101.81730508432</v>
+      </c>
+      <c r="D185">
+        <v>1.3211999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>393</v>
       </c>
-      <c r="B174" s="16">
-        <v>2.1367521367521367</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B186">
+        <v>95.6</v>
+      </c>
+      <c r="C186">
+        <v>101.855072685409</v>
+      </c>
+      <c r="D186">
+        <v>1.4251</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>395</v>
       </c>
-      <c r="B175" s="16">
-        <v>2.3479188900747094</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B187">
+        <v>95.9</v>
+      </c>
+      <c r="C187">
+        <v>101.84080189175</v>
+      </c>
+      <c r="D187">
+        <v>1.4885999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>397</v>
       </c>
-      <c r="B176" s="16">
-        <v>1.2944983818770257</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="B188">
+        <v>93.9</v>
+      </c>
+      <c r="C188">
+        <v>101.77600898327201</v>
+      </c>
+      <c r="D188">
+        <v>1.5975999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>399</v>
       </c>
-      <c r="B177" s="16">
-        <v>1.3993541442411164</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B189">
+        <v>94.2</v>
+      </c>
+      <c r="C189">
+        <v>101.66427430589199</v>
+      </c>
+      <c r="D189">
+        <v>1.5521</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>401</v>
       </c>
-      <c r="B178" s="16">
-        <v>2.9914529914530039</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="B190">
+        <v>96.4</v>
+      </c>
+      <c r="C190">
+        <v>101.511038855872</v>
+      </c>
+      <c r="D190">
+        <v>1.5365</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>403</v>
       </c>
-      <c r="B179" s="16">
-        <v>2.9661016949152512</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="B191">
+        <v>97.2</v>
+      </c>
+      <c r="C191">
+        <v>101.326719426987</v>
+      </c>
+      <c r="D191">
+        <v>1.5759000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>405</v>
       </c>
-      <c r="B180" s="16">
-        <v>2.863202545068932</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="B192">
+        <v>97</v>
+      </c>
+      <c r="C192">
+        <v>101.12328549775199</v>
+      </c>
+      <c r="D192">
+        <v>1.4846999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>407</v>
       </c>
-      <c r="B181" s="16">
-        <v>2.8571428571428603</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="B193">
+        <v>97.2</v>
+      </c>
+      <c r="C193">
+        <v>100.913031092841</v>
+      </c>
+      <c r="D193">
+        <v>1.4260999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>409</v>
       </c>
-      <c r="B182" s="16">
-        <v>2.3809523809523685</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="B194">
+        <v>94.6</v>
+      </c>
+      <c r="C194">
+        <v>100.70867578415</v>
+      </c>
+      <c r="D194">
+        <v>1.2222</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>411</v>
       </c>
-      <c r="B183" s="16">
-        <v>2.2727272727272667</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="B195">
+        <v>94.5</v>
+      </c>
+      <c r="C195">
+        <v>100.521357743652</v>
+      </c>
+      <c r="D195">
+        <v>1.0483</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>413</v>
       </c>
-      <c r="B184" s="16">
-        <v>2.6399155227032733</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="B196">
+        <v>97.2</v>
+      </c>
+      <c r="C196">
+        <v>100.358154635701</v>
+      </c>
+      <c r="D196">
+        <v>0.85850000000000004</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>415</v>
       </c>
-      <c r="B185" s="16">
-        <v>2.6150627615062763</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="B197">
+        <v>98.1</v>
+      </c>
+      <c r="C197">
+        <v>100.218312583648</v>
+      </c>
+      <c r="D197">
+        <v>0.74429999999999996</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>417</v>
       </c>
-      <c r="B186" s="16">
-        <v>2.6150627615062763</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="B198">
+        <v>98.1</v>
+      </c>
+      <c r="C198">
+        <v>100.09684092372601</v>
+      </c>
+      <c r="D198">
+        <v>0.68489999999999995</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>419</v>
       </c>
-      <c r="B187" s="16">
-        <v>2.5026068821689171</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="B199">
+        <v>98.3</v>
+      </c>
+      <c r="C199">
+        <v>99.9862942937133</v>
+      </c>
+      <c r="D199">
+        <v>0.65890000000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>421</v>
       </c>
-      <c r="B188" s="16">
-        <v>2.7689030883918999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="B200">
+        <v>96.5</v>
+      </c>
+      <c r="C200">
+        <v>99.877118066316697</v>
+      </c>
+      <c r="D200">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>423</v>
       </c>
-      <c r="B189" s="16">
-        <v>2.2292993630573186</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="B201">
+        <v>96.3</v>
+      </c>
+      <c r="C201">
+        <v>99.760349072696499</v>
+      </c>
+      <c r="D201">
+        <v>0.33239999999999997</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>425</v>
       </c>
-      <c r="B190" s="16">
-        <v>2.0746887966804977</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="B202">
+        <v>98.4</v>
+      </c>
+      <c r="C202">
+        <v>99.630091580798293</v>
+      </c>
+      <c r="D202">
+        <v>0.24629999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>427</v>
       </c>
-      <c r="B191" s="16">
-        <v>1.5432098765432098</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="B203">
+        <v>98.7</v>
+      </c>
+      <c r="C203">
+        <v>99.4863945094353</v>
+      </c>
+      <c r="D203">
+        <v>0.2079</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>429</v>
       </c>
-      <c r="B192" s="16">
-        <v>1.5463917525773196</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B204">
+        <v>98.5</v>
+      </c>
+      <c r="C204">
+        <v>99.334563557967002</v>
+      </c>
+      <c r="D204">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>431</v>
       </c>
-      <c r="B193" s="16">
-        <v>1.6460905349794182</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="B205">
+        <v>98.8</v>
+      </c>
+      <c r="C205">
+        <v>99.185276055383099</v>
+      </c>
+      <c r="D205">
+        <v>0.1855</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>433</v>
       </c>
-      <c r="B194" s="16">
-        <v>1.6913319238900726</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="B206">
+        <v>96.2</v>
+      </c>
+      <c r="C206">
+        <v>99.055117478346901</v>
+      </c>
+      <c r="D206">
+        <v>0.2049</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>435</v>
       </c>
-      <c r="B195" s="16">
-        <v>1.4814814814814874</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="B207">
+        <v>95.9</v>
+      </c>
+      <c r="C207">
+        <v>98.961469183953298</v>
+      </c>
+      <c r="D207">
+        <v>0.22339999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>437</v>
       </c>
-      <c r="B196" s="16">
-        <v>1.5432098765432098</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="B208">
+        <v>98.7</v>
+      </c>
+      <c r="C208">
+        <v>98.915901104404995</v>
+      </c>
+      <c r="D208">
+        <v>0.20610000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>439</v>
       </c>
-      <c r="B197" s="16">
-        <v>1.2232415902140703</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="B209">
+        <v>99.3</v>
+      </c>
+      <c r="C209">
+        <v>98.914759388894197</v>
+      </c>
+      <c r="D209">
+        <v>0.2089</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>441</v>
       </c>
-      <c r="B198" s="16">
-        <v>1.3251783893985845</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="B210">
+        <v>99.4</v>
+      </c>
+      <c r="C210">
+        <v>98.947190153635503</v>
+      </c>
+      <c r="D210">
+        <v>0.20119999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>443</v>
       </c>
-      <c r="B199" s="16">
-        <v>1.3224821973550329</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="B211">
+        <v>99.6</v>
+      </c>
+      <c r="C211">
+        <v>98.999718871393497</v>
+      </c>
+      <c r="D211">
+        <v>0.21029999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>445</v>
       </c>
-      <c r="B200" s="16">
-        <v>1.0362694300518136</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="B212">
+        <v>97.5</v>
+      </c>
+      <c r="C212">
+        <v>99.058227887893594</v>
+      </c>
+      <c r="D212">
+        <v>0.22140000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>447</v>
       </c>
-      <c r="B201" s="16">
-        <v>1.2461059190031181</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="B213">
+        <v>97.5</v>
+      </c>
+      <c r="C213">
+        <v>99.111119166008294</v>
+      </c>
+      <c r="D213">
+        <v>0.22589999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>449</v>
       </c>
-      <c r="B202" s="16">
-        <v>1.3211382113821108</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="B214">
+        <v>99.7</v>
+      </c>
+      <c r="C214">
+        <v>99.151879898706497</v>
+      </c>
+      <c r="D214">
+        <v>0.22320000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>451</v>
       </c>
-      <c r="B203" s="16">
-        <v>1.2158054711246229</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="B215">
+        <v>99.9</v>
+      </c>
+      <c r="C215">
+        <v>99.181863268041596</v>
+      </c>
+      <c r="D215">
+        <v>0.2258</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>453</v>
       </c>
-      <c r="B204" s="16">
-        <v>1.1167512690355272</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="B216">
+        <v>99.6</v>
+      </c>
+      <c r="C216">
+        <v>99.206029153266599</v>
+      </c>
+      <c r="D216">
+        <v>0.22339999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>455</v>
       </c>
-      <c r="B205" s="16">
-        <v>0.91093117408907465</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="B217">
+        <v>99.7</v>
+      </c>
+      <c r="C217">
+        <v>99.229230217972898</v>
+      </c>
+      <c r="D217">
+        <v>0.27350000000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>457</v>
       </c>
-      <c r="B206" s="16">
-        <v>1.0395010395010393</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="B218">
+        <v>97.2</v>
+      </c>
+      <c r="C218">
+        <v>99.252694966581501</v>
+      </c>
+      <c r="D218">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>459</v>
       </c>
-      <c r="B207" s="16">
-        <v>0.93847758081333832</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="B219">
+        <v>96.8</v>
+      </c>
+      <c r="C219">
+        <v>99.275640942990407</v>
+      </c>
+      <c r="D219">
+        <v>0.28810000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>461</v>
       </c>
-      <c r="B208" s="16">
-        <v>0.91185410334345629</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B220">
+        <v>99.6</v>
+      </c>
+      <c r="C220">
+        <v>99.296654655379797</v>
+      </c>
+      <c r="D220">
+        <v>0.30530000000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>463</v>
       </c>
-      <c r="B209" s="16">
-        <v>1.1077542799597266</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B221">
+        <v>100.4</v>
+      </c>
+      <c r="C221">
+        <v>99.314892658249406</v>
+      </c>
+      <c r="D221">
+        <v>0.32969999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>465</v>
       </c>
-      <c r="B210" s="16">
-        <v>0.80482897384305552</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B222">
+        <v>100.2</v>
+      </c>
+      <c r="C222">
+        <v>99.329309184561794</v>
+      </c>
+      <c r="D222">
+        <v>0.3246</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>467</v>
       </c>
-      <c r="B211" s="16">
-        <v>0.70281124497992264</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="B223">
+        <v>100.3</v>
+      </c>
+      <c r="C223">
+        <v>99.337863313409699</v>
+      </c>
+      <c r="D223">
+        <v>0.2414</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>469</v>
       </c>
-      <c r="B212" s="16">
-        <v>0.51282051282051277</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="B224">
+        <v>98</v>
+      </c>
+      <c r="C224">
+        <v>99.336782009640501</v>
+      </c>
+      <c r="D224">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>471</v>
       </c>
-      <c r="B213" s="16">
-        <v>0.41025641025641607</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="B225">
+        <v>97.9</v>
+      </c>
+      <c r="C225">
+        <v>99.323239403241203</v>
+      </c>
+      <c r="D225">
+        <v>0.19159999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>473</v>
       </c>
-      <c r="B214" s="16">
-        <v>0.4012036108324889</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="B226">
+        <v>100.1</v>
+      </c>
+      <c r="C226">
+        <v>99.298508442850405</v>
+      </c>
+      <c r="D226">
+        <v>9.7100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>475</v>
       </c>
-      <c r="B215" s="16">
-        <v>0.50050050050050054</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="B227">
+        <v>100.4</v>
+      </c>
+      <c r="C227">
+        <v>99.271779689888902</v>
+      </c>
+      <c r="D227">
+        <v>8.2600000000000007E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>477</v>
       </c>
-      <c r="B216" s="16">
-        <v>0.50200803212851408</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="B228">
+        <v>100.1</v>
+      </c>
+      <c r="C228">
+        <v>99.254999923851898</v>
+      </c>
+      <c r="D228">
+        <v>8.09E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>479</v>
       </c>
-      <c r="B217" s="16">
-        <v>0.60180541624874051</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="B229">
+        <v>100.3</v>
+      </c>
+      <c r="C229">
+        <v>99.257654876348099</v>
+      </c>
+      <c r="D229">
+        <v>8.09E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>481</v>
       </c>
-      <c r="B218" s="16">
-        <v>0.41152263374484715</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="B230">
+        <v>97.6</v>
+      </c>
+      <c r="C230">
+        <v>99.280636032121805</v>
+      </c>
+      <c r="D230">
+        <v>6.2700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>483</v>
       </c>
-      <c r="B219" s="16">
-        <v>0.92975206611570838</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="B231">
+        <v>97.7</v>
+      </c>
+      <c r="C231">
+        <v>99.320461844990007</v>
+      </c>
+      <c r="D231">
+        <v>4.82E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>485</v>
       </c>
-      <c r="B220" s="16">
-        <v>0.50200803212851408</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="B232">
+        <v>100.1</v>
+      </c>
+      <c r="C232">
+        <v>99.371819819600205</v>
+      </c>
+      <c r="D232">
+        <v>2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>487</v>
       </c>
-      <c r="B221" s="16">
-        <v>0.39840637450198352</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="B233">
+        <v>100.8</v>
+      </c>
+      <c r="C233">
+        <v>99.428696965419206</v>
+      </c>
+      <c r="D233">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>489</v>
       </c>
-      <c r="B222" s="16">
-        <v>0.69860279441118045</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="B234">
+        <v>100.9</v>
+      </c>
+      <c r="C234">
+        <v>99.486268210403793</v>
+      </c>
+      <c r="D234">
+        <v>-1.04E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>491</v>
       </c>
-      <c r="B223" s="16">
-        <v>0.6979062811565333</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="B235">
+        <v>101</v>
+      </c>
+      <c r="C235">
+        <v>99.5422048879242</v>
+      </c>
+      <c r="D235">
+        <v>-1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>493</v>
       </c>
-      <c r="B224" s="16">
-        <v>0.9183673469387813</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="B236">
+        <v>98.9</v>
+      </c>
+      <c r="C236">
+        <v>99.597752135794593</v>
+      </c>
+      <c r="D236">
+        <v>-1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>495</v>
       </c>
-      <c r="B225" s="16">
-        <v>1.0214504596527068</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="B237">
+        <v>98.9</v>
+      </c>
+      <c r="C237">
+        <v>99.655479470460605</v>
+      </c>
+      <c r="D237">
+        <v>-2.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>497</v>
       </c>
-      <c r="B226" s="16">
-        <v>0.89910089910090496</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="B238">
+        <v>101</v>
+      </c>
+      <c r="C238">
+        <v>99.716879547555394</v>
+      </c>
+      <c r="D238">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>499</v>
       </c>
-      <c r="B227" s="16">
-        <v>0.99601593625498008</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="B239">
+        <v>101.4</v>
+      </c>
+      <c r="C239">
+        <v>99.779635583313294</v>
+      </c>
+      <c r="D239">
+        <v>-5.3600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>501</v>
       </c>
-      <c r="B228" s="16">
-        <v>0.69930069930070216</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="B240">
+        <v>100.8</v>
+      </c>
+      <c r="C240">
+        <v>99.839786067495396</v>
+      </c>
+      <c r="D240">
+        <v>-8.7599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>503</v>
       </c>
-      <c r="B229" s="16">
-        <v>0.59820538384846322</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="B241">
+        <v>100.9</v>
+      </c>
+      <c r="C241">
+        <v>99.8936403237919</v>
+      </c>
+      <c r="D241">
+        <v>-0.1263</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>505</v>
       </c>
-      <c r="B230" s="16">
-        <v>0.92213114754098946</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="B242">
+        <v>98.5</v>
+      </c>
+      <c r="C242">
+        <v>99.939736451589198</v>
+      </c>
+      <c r="D242">
+        <v>-0.14610000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>507</v>
       </c>
-      <c r="B231" s="16">
-        <v>0.51177072671443191</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="B243">
+        <v>98.2</v>
+      </c>
+      <c r="C243">
+        <v>99.978529500046704</v>
+      </c>
+      <c r="D243">
+        <v>-0.18360000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>509</v>
       </c>
-      <c r="B232" s="16">
-        <v>0.59940059940060797</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="B244">
+        <v>100.7</v>
+      </c>
+      <c r="C244">
+        <v>100.012500292187</v>
+      </c>
+      <c r="D244">
+        <v>-0.22850000000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>511</v>
       </c>
-      <c r="B233" s="16">
-        <v>0.49603174603174599</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="B245">
+        <v>101.3</v>
+      </c>
+      <c r="C245">
+        <v>100.04666105056999</v>
+      </c>
+      <c r="D245">
+        <v>-0.2492</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>513</v>
       </c>
-      <c r="B234" s="16">
-        <v>0.594648166501481</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="B246">
+        <v>101.5</v>
+      </c>
+      <c r="C246">
+        <v>100.08632914861199</v>
+      </c>
+      <c r="D246">
+        <v>-0.25719999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>515</v>
       </c>
-      <c r="B235" s="16">
-        <v>0.49504950495049505</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="B247">
+        <v>101.5</v>
+      </c>
+      <c r="C247">
+        <v>100.134777851208</v>
+      </c>
+      <c r="D247">
+        <v>-0.26790000000000003</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>517</v>
       </c>
-      <c r="B236" s="16">
-        <v>0.60667340748229959</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="B248">
+        <v>99.5</v>
+      </c>
+      <c r="C248">
+        <v>100.190386325777</v>
+      </c>
+      <c r="D248">
+        <v>-0.29449999999999998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>519</v>
       </c>
-      <c r="B237" s="16">
-        <v>0.40444893832152823</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="B249">
+        <v>99.3</v>
+      </c>
+      <c r="C249">
+        <v>100.249605719477</v>
+      </c>
+      <c r="D249">
+        <v>-0.29820000000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>521</v>
       </c>
-      <c r="B238" s="16">
-        <v>0.49504950495049505</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="B250">
+        <v>101.5</v>
+      </c>
+      <c r="C250">
+        <v>100.30932309152099</v>
+      </c>
+      <c r="D250">
+        <v>-0.30159999999999998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>523</v>
       </c>
-      <c r="B239" s="16">
-        <v>0.19723865877710908</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="B251">
+        <v>101.6</v>
+      </c>
+      <c r="C251">
+        <v>100.368888786692</v>
+      </c>
+      <c r="D251">
+        <v>-0.309</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>525</v>
       </c>
-      <c r="B240" s="16">
-        <v>0.49603174603174599</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="B252">
+        <v>101.3</v>
+      </c>
+      <c r="C252">
+        <v>100.429001537331</v>
+      </c>
+      <c r="D252">
+        <v>-0.31269999999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>527</v>
       </c>
-      <c r="B241" s="16">
-        <v>0.69375619425172308</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="B253">
+        <v>101.6</v>
+      </c>
+      <c r="C253">
+        <v>100.49053739757601</v>
+      </c>
+      <c r="D253">
+        <v>-0.31580000000000003</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>529</v>
       </c>
-      <c r="B242" s="16">
-        <v>0.60913705583755773</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="B254">
+        <v>99.1</v>
+      </c>
+      <c r="C254">
+        <v>100.553279781966</v>
+      </c>
+      <c r="D254">
+        <v>-0.32550000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>531</v>
       </c>
-      <c r="B243" s="16">
-        <v>0.71283095723014545</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="B255">
+        <v>98.9</v>
+      </c>
+      <c r="C255">
+        <v>100.61651648396899</v>
+      </c>
+      <c r="D255">
+        <v>-0.3286</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>533</v>
       </c>
-      <c r="B244" s="16">
-        <v>0.69513406156901969</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="B256">
+        <v>101.4</v>
+      </c>
+      <c r="C256">
+        <v>100.679508106775</v>
+      </c>
+      <c r="D256">
+        <v>-0.32929999999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>535</v>
       </c>
-      <c r="B245" s="16">
-        <v>1.0858835143139276</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="B257">
+        <v>102.4</v>
+      </c>
+      <c r="C257">
+        <v>100.741886257004</v>
+      </c>
+      <c r="D257">
+        <v>-0.33040000000000003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>537</v>
       </c>
-      <c r="B246" s="16">
-        <v>0.78817733990147498</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="B258">
+        <v>102.3</v>
+      </c>
+      <c r="C258">
+        <v>100.80346610117201</v>
+      </c>
+      <c r="D258">
+        <v>-0.32950000000000002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>539</v>
       </c>
-      <c r="B247" s="16">
-        <v>0.98522167487684731</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="B259">
+        <v>102.5</v>
+      </c>
+      <c r="C259">
+        <v>100.86408125385</v>
+      </c>
+      <c r="D259">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>541</v>
       </c>
-      <c r="B248" s="16">
-        <v>0.90452261306533233</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="B260">
+        <v>100.4</v>
+      </c>
+      <c r="C260">
+        <v>100.923461014635</v>
+      </c>
+      <c r="D260">
+        <v>-0.33040000000000003</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>543</v>
       </c>
-      <c r="B249" s="16">
-        <v>1.2084592145015136</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="B261">
+        <v>100.5</v>
+      </c>
+      <c r="C261">
+        <v>100.98002809134699</v>
+      </c>
+      <c r="D261">
+        <v>-0.3291</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>545</v>
       </c>
-      <c r="B250" s="16">
-        <v>0.98522167487684731</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="B262">
+        <v>102.5</v>
+      </c>
+      <c r="C262">
+        <v>101.02978150869301</v>
+      </c>
+      <c r="D262">
+        <v>-0.32940000000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>547</v>
       </c>
-      <c r="B251" s="16">
-        <v>0.59055118110237059</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="B263">
+        <v>102.2</v>
+      </c>
+      <c r="C263">
+        <v>101.06538642514001</v>
+      </c>
+      <c r="D263">
+        <v>-0.32950000000000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>549</v>
       </c>
-      <c r="B252" s="16">
-        <v>0.4935834155972359</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="B264">
+        <v>101.8</v>
+      </c>
+      <c r="C264">
+        <v>101.07907347139501</v>
+      </c>
+      <c r="D264">
+        <v>-0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>551</v>
       </c>
-      <c r="B253" s="16">
-        <v>0.49212598425196852</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="B265">
+        <v>102.1</v>
+      </c>
+      <c r="C265">
+        <v>101.066574083801</v>
+      </c>
+      <c r="D265">
+        <v>-0.32790000000000002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>553</v>
       </c>
-      <c r="B254" s="16">
-        <v>0.80726538849647966</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="B266">
+        <v>99.9</v>
+      </c>
+      <c r="C266">
+        <v>101.03263320407299</v>
+      </c>
+      <c r="D266">
+        <v>-0.32850000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>555</v>
       </c>
-      <c r="B255" s="16">
-        <v>0.60667340748229959</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="B267">
+        <v>99.5</v>
+      </c>
+      <c r="C267">
+        <v>100.98574917348</v>
+      </c>
+      <c r="D267">
+        <v>-0.32850000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>557</v>
       </c>
-      <c r="B256" s="16">
-        <v>0.78895463510847841</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="B268">
+        <v>102.2</v>
+      </c>
+      <c r="C268">
+        <v>100.934482034806</v>
+      </c>
+      <c r="D268">
+        <v>-0.32790000000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>559</v>
       </c>
-      <c r="B257" s="16">
-        <v>0.58593749999999445</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="B269">
+        <v>103</v>
+      </c>
+      <c r="C269">
+        <v>100.884743216541</v>
+      </c>
+      <c r="D269">
+        <v>-0.32850000000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>561</v>
       </c>
-      <c r="B258" s="16">
-        <v>0.78201368523948889</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="B270">
+        <v>103.1</v>
+      </c>
+      <c r="C270">
+        <v>100.840523759552</v>
+      </c>
+      <c r="D270">
+        <v>-0.32519999999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>563</v>
       </c>
-      <c r="B259" s="16">
-        <v>0.78048780487804603</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="B271">
+        <v>103.3</v>
+      </c>
+      <c r="C271">
+        <v>100.804555328692</v>
+      </c>
+      <c r="D271">
+        <v>-0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>565</v>
       </c>
-      <c r="B260" s="16">
-        <v>1.0956175298804725</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="B272">
+        <v>101.5</v>
+      </c>
+      <c r="C272">
+        <v>100.77861641800899</v>
+      </c>
+      <c r="D272">
+        <v>-0.32069999999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>567</v>
       </c>
-      <c r="B261" s="16">
-        <v>0.79601990049750959</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="B273">
+        <v>101.3</v>
+      </c>
+      <c r="C273">
+        <v>100.763626394052</v>
+      </c>
+      <c r="D273">
+        <v>-0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>569</v>
       </c>
-      <c r="B262" s="16">
-        <v>0.68292682926829551</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="B274">
+        <v>103.2</v>
+      </c>
+      <c r="C274">
+        <v>100.759061007973</v>
+      </c>
+      <c r="D274">
+        <v>-0.31879999999999997</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>571</v>
       </c>
-      <c r="B263" s="16">
-        <v>0.78277886497064297</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="B275">
+        <v>103</v>
+      </c>
+      <c r="C275">
+        <v>100.761622335201</v>
+      </c>
+      <c r="D275">
+        <v>-0.31769999999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>573</v>
       </c>
-      <c r="B264" s="16">
-        <v>0.78585461689587144</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="B276">
+        <v>102.6</v>
+      </c>
+      <c r="C276">
+        <v>100.767525771903</v>
+      </c>
+      <c r="D276">
+        <v>-0.31640000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>575</v>
       </c>
-      <c r="B265" s="16">
-        <v>0.58765915768854904</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="B277">
+        <v>102.7</v>
+      </c>
+      <c r="C277">
+        <v>100.77431070824299</v>
+      </c>
+      <c r="D277">
+        <v>-0.31190000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>577</v>
       </c>
-      <c r="B266" s="16">
-        <v>0.60060060060059484</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="B278">
+        <v>100.5</v>
+      </c>
+      <c r="C278">
+        <v>100.782447864085</v>
+      </c>
+      <c r="D278">
+        <v>-0.308</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>579</v>
       </c>
-      <c r="B267" s="16">
-        <v>0.50251256281407031</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="B279">
+        <v>100</v>
+      </c>
+      <c r="C279">
+        <v>100.792784634469</v>
+      </c>
+      <c r="D279">
+        <v>-0.30840000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>581</v>
       </c>
-      <c r="B268" s="16">
-        <v>0.48923679060665359</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="B280">
+        <v>102.7</v>
+      </c>
+      <c r="C280">
+        <v>100.80392873392</v>
+      </c>
+      <c r="D280">
+        <v>-0.30919999999999997</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>583</v>
       </c>
-      <c r="B269" s="16">
-        <v>0.6796116504854397</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="B281">
+        <v>103.7</v>
+      </c>
+      <c r="C281">
+        <v>100.809506503111</v>
+      </c>
+      <c r="D281">
+        <v>-0.3105</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>585</v>
       </c>
-      <c r="B270" s="16">
-        <v>0.48496605237633372</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="B282">
+        <v>103.6</v>
+      </c>
+      <c r="C282">
+        <v>100.800170220121</v>
+      </c>
+      <c r="D282">
+        <v>-0.31190000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>587</v>
       </c>
-      <c r="B271" s="16">
-        <v>0.48402710551790895</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="B283">
+        <v>103.8</v>
+      </c>
+      <c r="C283">
+        <v>100.766038903911</v>
+      </c>
+      <c r="D283">
+        <v>-0.32890000000000003</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>589</v>
       </c>
-      <c r="B272" s="16">
-        <v>0.39408866995074454</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="B284">
+        <v>101.9</v>
+      </c>
+      <c r="C284">
+        <v>100.70023850290301</v>
+      </c>
+      <c r="D284">
+        <v>-0.3649</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>591</v>
       </c>
-      <c r="B273" s="16">
-        <v>0.59230009871669154</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="B285">
+        <v>101.9</v>
+      </c>
+      <c r="C285">
+        <v>100.599001754011</v>
+      </c>
+      <c r="D285">
+        <v>-0.40770000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>593</v>
       </c>
-      <c r="B274" s="16">
-        <v>0.48449612403100772</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="B286">
+        <v>103.7</v>
+      </c>
+      <c r="C286">
+        <v>100.464041076158</v>
+      </c>
+      <c r="D286">
+        <v>-0.41760000000000003</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>595</v>
       </c>
-      <c r="B275" s="16">
-        <v>0.6796116504854397</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="B287">
+        <v>103.7</v>
+      </c>
+      <c r="C287">
+        <v>100.307427350183</v>
+      </c>
+      <c r="D287">
+        <v>-0.41289999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>597</v>
       </c>
-      <c r="B276" s="16">
-        <v>0.6822612085770009</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="B288">
+        <v>103.3</v>
+      </c>
+      <c r="C288">
+        <v>100.144921031287</v>
+      </c>
+      <c r="D288">
+        <v>-0.40129999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>599</v>
       </c>
-      <c r="B277" s="16">
-        <v>0.68159688412853248</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="B289">
+        <v>103.4</v>
+      </c>
+      <c r="C289">
+        <v>99.990917871581303</v>
+      </c>
+      <c r="D289">
+        <v>-0.3947</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>601</v>
       </c>
-      <c r="B278" s="16">
-        <v>0.59701492537312872</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="B290">
+        <v>101.1</v>
+      </c>
+      <c r="C290">
+        <v>99.853892145691802</v>
+      </c>
+      <c r="D290">
+        <v>-0.3911</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>603</v>
       </c>
-      <c r="B279" s="16">
-        <v>0.59999999999999432</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="B291">
+        <v>100.6</v>
+      </c>
+      <c r="C291">
+        <v>99.738439167493695</v>
+      </c>
+      <c r="D291">
+        <v>-0.4088</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>605</v>
       </c>
-      <c r="B280" s="16">
-        <v>0.68159688412853248</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="B292">
+        <v>103.4</v>
+      </c>
+      <c r="C292">
+        <v>85.641846980354501</v>
+      </c>
+      <c r="D292">
+        <v>-0.41660000000000003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>607</v>
       </c>
-      <c r="B281" s="16">
-        <v>0.77145612343297698</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="B293">
+        <v>104.5</v>
+      </c>
+      <c r="C293">
+        <v>85.909186517901404</v>
+      </c>
+      <c r="D293">
+        <v>-0.254</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>609</v>
       </c>
-      <c r="B282" s="16">
-        <v>0.7722007722007832</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="B294">
+        <v>104.4</v>
+      </c>
+      <c r="C294">
+        <v>86.018033742535906</v>
+      </c>
+      <c r="D294">
+        <v>-0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>611</v>
       </c>
-      <c r="B283" s="16">
-        <v>0.57803468208093312</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="B295">
+        <v>104.4</v>
+      </c>
+      <c r="C295">
+        <v>89.029350102430897</v>
+      </c>
+      <c r="D295">
+        <v>-0.376</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>613</v>
       </c>
-      <c r="B284" s="16">
-        <v>1.8645731108930239</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="B296">
+        <v>103.8</v>
+      </c>
+      <c r="C296">
+        <v>92.0344023567595</v>
+      </c>
+      <c r="D296">
+        <v>-0.44409999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>615</v>
       </c>
-      <c r="B285" s="16">
-        <v>0.39254170755641954</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="B297">
+        <v>102.3</v>
+      </c>
+      <c r="C297">
+        <v>95.029985008465601</v>
+      </c>
+      <c r="D297">
+        <v>-0.47970000000000002</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>617</v>
       </c>
-      <c r="B286" s="16">
-        <v>-0.38572806171649537</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="B298">
+        <v>103.3</v>
+      </c>
+      <c r="C298">
+        <v>94.891635536415905</v>
+      </c>
+      <c r="D298">
+        <v>-0.4914</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>619</v>
       </c>
-      <c r="B287" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="B299">
+        <v>103.7</v>
+      </c>
+      <c r="C299">
+        <v>94.745647462578503</v>
+      </c>
+      <c r="D299">
+        <v>-0.5091</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>621</v>
       </c>
-      <c r="B288" s="16">
-        <v>0.29041626331074266</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="B300">
+        <v>103.6</v>
+      </c>
+      <c r="C300">
+        <v>94.593098963528405</v>
+      </c>
+      <c r="D300">
+        <v>-0.52090000000000003</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>623</v>
       </c>
-      <c r="B289" s="16">
-        <v>0.38684719535782536</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="B301">
+        <v>103.8</v>
+      </c>
+      <c r="C301">
+        <v>94.961793551751398</v>
+      </c>
+      <c r="D301">
+        <v>-0.53810000000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>625</v>
       </c>
-      <c r="B290" s="16">
-        <v>1.1869436201780443</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="B302">
+        <v>102.3</v>
+      </c>
+      <c r="C302">
+        <v>95.328828696303603</v>
+      </c>
+      <c r="D302">
+        <v>-0.54720000000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>627</v>
       </c>
-      <c r="B291" s="16">
-        <v>1.3916500994035843</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="B303">
+        <v>102</v>
+      </c>
+      <c r="C303">
+        <v>95.702301135496995</v>
+      </c>
+      <c r="D303">
+        <v>-0.54110000000000003</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>629</v>
       </c>
-      <c r="B292" s="16">
-        <v>0.48355899419729204</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="B304">
+        <v>103.9</v>
+      </c>
+      <c r="C304">
+        <v>96.291070358152794</v>
+      </c>
+      <c r="D304">
+        <v>-0.53910000000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>631</v>
       </c>
-      <c r="B293" s="16">
-        <v>0.19138755980861516</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="B305">
+        <v>104.7</v>
+      </c>
+      <c r="C305">
+        <v>96.886714230316699</v>
+      </c>
+      <c r="D305">
+        <v>-0.53820000000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>633</v>
       </c>
-      <c r="B294" s="16">
-        <v>9.5785440613021369E-2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="B306">
+        <v>104.5</v>
+      </c>
+      <c r="C306">
+        <v>97.485100180713005</v>
+      </c>
+      <c r="D306">
+        <v>-0.54010000000000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>635</v>
       </c>
-      <c r="B295" s="16">
-        <v>0.28735632183907772</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="B307">
+        <v>104.7</v>
+      </c>
+      <c r="C307">
+        <v>98.157330406840103</v>
+      </c>
+      <c r="D307">
+        <v>-0.54290000000000005</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>637</v>
       </c>
-      <c r="B296" s="16">
-        <v>-0.57803468208091935</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="B308">
+        <v>103.2</v>
+      </c>
+      <c r="C308">
+        <v>98.820906899005294</v>
+      </c>
+      <c r="D308">
+        <v>-0.54479999999999995</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>639</v>
       </c>
-      <c r="B297" s="16">
-        <v>0.87976539589443381</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="B309">
+        <v>103.2</v>
+      </c>
+      <c r="C309">
+        <v>99.4653613285017</v>
+      </c>
+      <c r="D309">
+        <v>-0.54759999999999998</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
         <v>641</v>
       </c>
-      <c r="B298" s="16">
-        <v>1.3552758954501507</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="B310">
+        <v>104.7</v>
+      </c>
+      <c r="C310">
+        <v>99.603476583807605</v>
+      </c>
+      <c r="D310">
+        <v>-0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>643</v>
       </c>
-      <c r="B299" s="16">
-        <v>1.1571841851494724</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="B311">
+        <v>104.9</v>
+      </c>
+      <c r="C311">
+        <v>99.695882613164699</v>
+      </c>
+      <c r="D311">
+        <v>-0.54979999999999996</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
         <v>645</v>
       </c>
-      <c r="B300" s="16">
-        <v>1.2548262548262659</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="B312">
+        <v>104.9</v>
+      </c>
+      <c r="C312">
+        <v>99.785292463924705</v>
+      </c>
+      <c r="D312">
+        <v>-0.56740000000000002</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
         <v>647</v>
       </c>
-      <c r="B301" s="16">
-        <v>1.5414258188824745</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="B313">
+        <v>105.4</v>
+      </c>
+      <c r="C313">
+        <v>99.872843345613902</v>
+      </c>
+      <c r="D313">
+        <v>-0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
         <v>649</v>
       </c>
-      <c r="B302" s="16">
-        <v>1.466275659824047</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="B314">
+        <v>103.8</v>
+      </c>
+      <c r="C314">
+        <v>99.969854012932402</v>
+      </c>
+      <c r="D314">
+        <v>-0.56010000000000004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
         <v>651</v>
       </c>
-      <c r="B303" s="16">
-        <v>1.8627450980392213</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="B315">
+        <v>103.9</v>
+      </c>
+      <c r="C315">
+        <v>100.08881158828601</v>
+      </c>
+      <c r="D315">
+        <v>-0.53149999999999997</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
         <v>653</v>
       </c>
-      <c r="B304" s="16">
-        <v>2.1174205967276114</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="B316">
+        <v>106.1</v>
+      </c>
+      <c r="C316">
+        <v>100.233597064691</v>
+      </c>
+      <c r="D316">
+        <v>-0.49540000000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
         <v>655</v>
       </c>
-      <c r="B305" s="16">
-        <v>2.5787965616045869</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="B317">
+        <v>107.4</v>
+      </c>
+      <c r="C317">
+        <v>100.388000944536</v>
+      </c>
+      <c r="D317">
+        <v>-0.44790000000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>657</v>
       </c>
-      <c r="B306" s="16">
-        <v>3.4449760765550184</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="B318">
+        <v>108.1</v>
+      </c>
+      <c r="C318">
+        <v>100.52758597330801</v>
+      </c>
+      <c r="D318">
+        <v>-0.38569999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
         <v>659</v>
       </c>
-      <c r="B307" s="16">
-        <v>4.0114613180515786</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="B319">
+        <v>108.9</v>
+      </c>
+      <c r="C319">
+        <v>100.63088018389099</v>
+      </c>
+      <c r="D319">
+        <v>-0.2392</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>661</v>
       </c>
-      <c r="B308" s="16">
-        <v>4.2635658914728598</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="B320">
+        <v>107.6</v>
+      </c>
+      <c r="C320">
+        <v>100.691667775732</v>
+      </c>
+      <c r="D320">
+        <v>3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>663</v>
       </c>
-      <c r="B309" s="16">
-        <v>4.9418604651162736</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="B321">
+        <v>108.3</v>
+      </c>
+      <c r="C321">
+        <v>100.712905698909</v>
+      </c>
+      <c r="D321">
+        <v>0.3947</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>665</v>
       </c>
-      <c r="B310" s="16">
-        <v>5.3486150907354295</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="B322">
+        <v>110.3</v>
+      </c>
+      <c r="C322">
+        <v>100.70358191644</v>
+      </c>
+      <c r="D322">
+        <v>1.0108999999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>667</v>
       </c>
-      <c r="B311" s="16">
-        <v>5.7197330791229737</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="B323">
+        <v>110.9</v>
+      </c>
+      <c r="C323">
+        <v>100.678350468985</v>
+      </c>
+      <c r="D323">
+        <v>1.4277</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
         <v>669</v>
       </c>
-      <c r="B312" s="16">
-        <v>6.1010486177311645</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="B324">
+        <v>111.3</v>
+      </c>
+      <c r="C324">
+        <v>100.65054842072399</v>
+      </c>
+      <c r="D324">
+        <v>1.8251999999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>671</v>
       </c>
-      <c r="B313" s="16">
-        <v>6.4516129032258034</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="B325">
+        <v>112.2</v>
+      </c>
+      <c r="C325">
+        <v>100.626373934363</v>
+      </c>
+      <c r="D325">
+        <v>2.0634999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>673</v>
       </c>
-      <c r="B314" s="16">
-        <v>6.6473988439306408</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="B326">
+        <v>110.7</v>
+      </c>
+      <c r="C326">
+        <v>100.599268896314</v>
+      </c>
+      <c r="D326">
+        <v>2.3449</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
         <v>675</v>
       </c>
-      <c r="B315" s="16">
-        <v>7.0259865255052905</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="B327">
+        <v>111.2</v>
+      </c>
+      <c r="C327">
+        <v>100.558052236498</v>
+      </c>
+      <c r="D327">
+        <v>2.6402999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
         <v>677</v>
       </c>
-      <c r="B316" s="16">
-        <v>6.7860508953817176</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="B328">
+        <v>113.3</v>
+      </c>
+      <c r="C328">
+        <v>100.49523340547201</v>
+      </c>
+      <c r="D328">
+        <v>2.9106000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
         <v>679</v>
       </c>
-      <c r="B317" s="16">
-        <v>6.7039106145251282</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="B329">
+        <v>114.6</v>
+      </c>
+      <c r="C329">
+        <v>100.41629068871499</v>
+      </c>
+      <c r="D329">
+        <v>3.1669999999999998</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
         <v>681</v>
       </c>
-      <c r="B318" s="16">
-        <v>6.3829787234042605</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="B330">
+        <v>115</v>
+      </c>
+      <c r="C330">
+        <v>100.332102124733</v>
+      </c>
+      <c r="D330">
+        <v>3.3664000000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
         <v>683</v>
       </c>
-      <c r="B319" s="16">
-        <v>6.0606060606060552</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="B331">
+        <v>115.5</v>
+      </c>
+      <c r="C331">
+        <v>100.25255475604</v>
+      </c>
+      <c r="D331">
+        <v>3.5358999999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
         <v>685</v>
       </c>
-      <c r="B320" s="16">
-        <v>5.5762081784386623</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="B332">
+        <v>113.6</v>
+      </c>
+      <c r="C332">
+        <v>100.180572940593</v>
+      </c>
+      <c r="D332">
+        <v>3.6718000000000002</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>687</v>
       </c>
-      <c r="B321" s="16">
-        <v>4.9861495844875394</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="B333">
+        <v>113.7</v>
+      </c>
+      <c r="C333">
+        <v>100.11509872904099</v>
+      </c>
+      <c r="D333">
+        <v>3.7803</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
         <v>689</v>
       </c>
-      <c r="B322" s="16">
-        <v>4.895738893925663</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="B334">
+        <v>115.7</v>
+      </c>
+      <c r="D334">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
         <v>691</v>
       </c>
-      <c r="B323" s="16">
-        <v>4.4183949504057631</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="B335">
+        <v>115.8</v>
+      </c>
+      <c r="D335">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
         <v>693</v>
       </c>
-      <c r="B324" s="16">
-        <v>3.6837376460018048</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="B336">
+        <v>115.4</v>
+      </c>
+      <c r="D336">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
         <v>695</v>
       </c>
-      <c r="B325" s="16">
-        <v>3.2085561497326149</v>
+      <c r="B337">
+        <v>115.8</v>
+      </c>
+      <c r="D337">
+        <v>3.93</v>
       </c>
     </row>
   </sheetData>
